--- a/test_case_data/bmc/bmc_review_of_non-traffic_occupancy_road_2021513.xlsx
+++ b/test_case_data/bmc/bmc_review_of_non-traffic_occupancy_road_2021513.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">remarks </t>
   </si>
   <si>
-    <t>road001</t>
+    <t>roadlist001</t>
   </si>
   <si>
     <t>非交通占用道路审查</t>
@@ -106,7 +106,7 @@
     <t>http://testbmcapp.hikcreate.com</t>
   </si>
   <si>
-    <t>road002</t>
+    <t>roadgetBefore001</t>
   </si>
   <si>
     <t>业务申请</t>
@@ -124,7 +124,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75886</t>
   </si>
   <si>
-    <t>road003</t>
+    <t>roadmylist001</t>
   </si>
   <si>
     <t>我的申请记录页面显示正确</t>
@@ -139,7 +139,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75866</t>
   </si>
   <si>
-    <t>road004</t>
+    <t>roadaddBasicInfo001</t>
   </si>
   <si>
     <t>添加基本信息</t>
@@ -160,7 +160,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75851</t>
   </si>
   <si>
-    <t>road005</t>
+    <t>roadaddOccupyRoadInfo001</t>
   </si>
   <si>
     <t>添加占道信息-作业方式是计划作业</t>
@@ -199,7 +199,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75856</t>
   </si>
   <si>
-    <t>road006</t>
+    <t>roadaddFile001</t>
   </si>
   <si>
     <t>提交上传资料</t>
@@ -222,7 +222,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75861</t>
   </si>
   <si>
-    <t>road007</t>
+    <t>roaddetailt001</t>
   </si>
   <si>
     <t>申请详情</t>
@@ -240,7 +240,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75871</t>
   </si>
   <si>
-    <t>road008</t>
+    <t>roadreSubmit001</t>
   </si>
   <si>
     <t>重新提交</t>
@@ -258,7 +258,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75986</t>
   </si>
   <si>
-    <t>road009</t>
+    <t>roadnoticeDetail001</t>
   </si>
   <si>
     <t>查看意见书</t>
@@ -276,7 +276,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/77071</t>
   </si>
   <si>
-    <t>road010</t>
+    <t>roadaddOccupyRoadInfo002</t>
   </si>
   <si>
     <t>添加占道信息-作业方式是紧急抢修</t>
@@ -306,7 +306,7 @@
 }</t>
   </si>
   <si>
-    <t>road011</t>
+    <t>roadtemOccupyRoad001</t>
   </si>
   <si>
     <t>占道施工公示</t>
@@ -324,7 +324,7 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/75876</t>
   </si>
   <si>
-    <t>road012</t>
+    <t>roadtemOccupyRoad002</t>
   </si>
   <si>
     <t>搜索存在的临时占道施工的道路</t>
@@ -333,7 +333,7 @@
     <t>{"roadLng": 104.073605,"roadLat": 30.394213,"roadName": "%E5%8F%8C%E6%B5%81"}</t>
   </si>
   <si>
-    <t>road013</t>
+    <t>roadtemOccupyRoad003</t>
   </si>
   <si>
     <t>{"roadLng": 104.073605,"roadLat": 30.394213,"roadName": "%E8%83%8C%E6%99%A"}</t>
@@ -347,9 +347,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -387,7 +387,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,134 +516,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -545,121 +545,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,61 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,21 +736,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -765,15 +750,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +778,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,22 +822,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,133 +856,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,13 +1364,13 @@
   <sheetPr/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
